--- a/Put Portfolios/Today_OneSigma.xlsx
+++ b/Put Portfolios/Today_OneSigma.xlsx
@@ -469,16 +469,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-989436.730130323</v>
+        <v>-986487.1946236491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>789749.1854491407</v>
+        <v>732533.4774821366</v>
       </c>
       <c r="E2" t="n">
-        <v>-199687.5446811822</v>
+        <v>-253953.7171415125</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-918762.6779781571</v>
+        <v>-917981.1394414512</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>719274.830114315</v>
+        <v>665238.9769025868</v>
       </c>
       <c r="E3" t="n">
-        <v>-199487.847863842</v>
+        <v>-252742.1625388644</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-848088.6258259912</v>
+        <v>-849475.0842592533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>649064.9108093004</v>
+        <v>598791.4083689798</v>
       </c>
       <c r="E4" t="n">
-        <v>-199023.7150166908</v>
+        <v>-250683.6758902735</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-777414.5736738251</v>
+        <v>-780969.0290770555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>579359.3213584538</v>
+        <v>533562.7344619733</v>
       </c>
       <c r="E5" t="n">
-        <v>-198055.2523153713</v>
+        <v>-247406.2946150822</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-706740.5215216592</v>
+        <v>-712462.9738948577</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>510523.3336496071</v>
+        <v>469985.388318433</v>
       </c>
       <c r="E6" t="n">
-        <v>-196217.1878720521</v>
+        <v>-242477.5855764247</v>
       </c>
     </row>
     <row r="7">
@@ -554,16 +554,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-636066.4693694933</v>
+        <v>-643956.9187126597</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>443058.2891911694</v>
+        <v>408528.5085115994</v>
       </c>
       <c r="E7" t="n">
-        <v>-193008.1801783239</v>
+        <v>-235428.4102010603</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-565392.4172173274</v>
+        <v>-575450.8635304619</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>377588.62681734</v>
+        <v>349667.7536693502</v>
       </c>
       <c r="E8" t="n">
-        <v>-187803.7903999874</v>
+        <v>-225783.1098611117</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-494718.3650651615</v>
+        <v>-506944.8083482641</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>314822.897326419</v>
+        <v>293853.0306963759</v>
       </c>
       <c r="E9" t="n">
-        <v>-179895.4677387425</v>
+        <v>-213091.7776518882</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-424044.3129129956</v>
+        <v>-438438.7531660662</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>255493.6554593579</v>
+        <v>241478.5264214666</v>
       </c>
       <c r="E10" t="n">
-        <v>-168550.6574536377</v>
+        <v>-196960.2267445996</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-353370.2607608296</v>
+        <v>-369932.6979838684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>200287.0099705933</v>
+        <v>192858.6229852681</v>
       </c>
       <c r="E11" t="n">
-        <v>-153083.2507902363</v>
+        <v>-177074.0749986003</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-282696.2086086637</v>
+        <v>-301426.6428016705</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>149775.1295300945</v>
+        <v>148211.9476678017</v>
       </c>
       <c r="E12" t="n">
-        <v>-132921.0790785692</v>
+        <v>-153214.6951338688</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-212022.1564564978</v>
+        <v>-232920.5876194726</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>104363.6538646616</v>
+        <v>107654.3407572411</v>
       </c>
       <c r="E13" t="n">
-        <v>-107658.5025918362</v>
+        <v>-125266.2468622315</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-141348.1043043318</v>
+        <v>-164414.5324372748</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>64261.70247856182</v>
+        <v>71200.23166862775</v>
       </c>
       <c r="E14" t="n">
-        <v>-77086.40182577004</v>
+        <v>-93214.30076864701</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-70674.05215216592</v>
+        <v>-95908.47725507691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>29476.73203071048</v>
+        <v>38770.98122003781</v>
       </c>
       <c r="E15" t="n">
-        <v>-41197.32012145544</v>
+        <v>-57137.4960350391</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-27402.42207287905</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-168.4404265657096</v>
+        <v>10208.23807777647</v>
       </c>
       <c r="E16" t="n">
-        <v>-168.4404265657096</v>
+        <v>-17194.18399510257</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>70674.05215216592</v>
+        <v>41103.63310931881</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-25002.44838809826</v>
+        <v>-14709.76586600559</v>
       </c>
       <c r="E17" t="n">
-        <v>45671.60376406767</v>
+        <v>26393.86724331323</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>141348.1043043318</v>
+        <v>109609.6882915167</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-45463.36349427157</v>
+        <v>-36250.88538659483</v>
       </c>
       <c r="E18" t="n">
-        <v>95884.74081006029</v>
+        <v>73358.80290492185</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>212022.1564564978</v>
+        <v>178115.7434737145</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-62054.82596113854</v>
+        <v>-54712.24747499838</v>
       </c>
       <c r="E19" t="n">
-        <v>149967.3304953593</v>
+        <v>123403.4959987162</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>282696.2086086637</v>
+        <v>246621.7986559124</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-75305.78005200415</v>
+        <v>-70405.06987772718</v>
       </c>
       <c r="E20" t="n">
-        <v>207390.4285566595</v>
+        <v>176216.7287781852</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>353370.2607608296</v>
+        <v>315127.8538381102</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-85737.29756450233</v>
+        <v>-83641.79829517353</v>
       </c>
       <c r="E21" t="n">
-        <v>267632.9631963273</v>
+        <v>231486.0555429367</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>424044.3129129956</v>
+        <v>383633.9090203081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-93838.04660804778</v>
+        <v>-94725.87042893528</v>
       </c>
       <c r="E22" t="n">
-        <v>330206.2663049478</v>
+        <v>288908.0385913728</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>494718.3650651615</v>
+        <v>452139.9642025059</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-100048.417813527</v>
+        <v>-103944.1188321194</v>
       </c>
       <c r="E23" t="n">
-        <v>394669.9472516344</v>
+        <v>348195.8453703866</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>565392.4172173274</v>
+        <v>520646.0193847038</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-104752.285827285</v>
+        <v>-111561.6164057648</v>
       </c>
       <c r="E24" t="n">
-        <v>460640.1313900424</v>
+        <v>409084.402978939</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>636066.4693694933</v>
+        <v>589152.0745669017</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-108274.844618159</v>
+        <v>-117818.6417604066</v>
       </c>
       <c r="E25" t="n">
-        <v>527791.6247513343</v>
+        <v>471333.4328064951</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>706740.5215216592</v>
+        <v>657658.1297490995</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-110884.8116297345</v>
+        <v>-122929.3824326567</v>
       </c>
       <c r="E26" t="n">
-        <v>595855.7098919246</v>
+        <v>534728.7473164428</v>
       </c>
     </row>
     <row r="27">
@@ -894,16 +894,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>777414.5736738251</v>
+        <v>726164.1849312974</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-112799.4198510135</v>
+        <v>-127081.9852930039</v>
       </c>
       <c r="E27" t="n">
-        <v>664615.1538228117</v>
+        <v>599082.1996382936</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1009921.962638197</v>
+        <v>-1059392.721239566</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>726368.2701349036</v>
+        <v>723331.8350977566</v>
       </c>
       <c r="E2" t="n">
-        <v>-283553.6925032935</v>
+        <v>-336060.8861418095</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-963488.7689536823</v>
+        <v>-1016152.202005298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>681058.5028489344</v>
+        <v>682004.752173912</v>
       </c>
       <c r="E3" t="n">
-        <v>-282430.2661047479</v>
+        <v>-334147.4498313861</v>
       </c>
     </row>
     <row r="4">
@@ -991,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-917055.5752691675</v>
+        <v>-972911.6827710301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>636184.6317755434</v>
+        <v>641200.0878902735</v>
       </c>
       <c r="E4" t="n">
-        <v>-280870.9434936241</v>
+        <v>-331711.5948807566</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1008,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-870622.3815846527</v>
+        <v>-929671.1635367621</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>591857.3795191951</v>
+        <v>601002.9594873971</v>
       </c>
       <c r="E5" t="n">
-        <v>-278765.0020654576</v>
+        <v>-328668.204049365</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1025,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-824189.1879001379</v>
+        <v>-886430.6443024941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>548198.085784714</v>
+        <v>561500.2575752214</v>
       </c>
       <c r="E6" t="n">
-        <v>-275991.1021154239</v>
+        <v>-324930.3867272728</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-777755.994215623</v>
+        <v>-843190.1250682261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>505335.8374836579</v>
+        <v>522778.8012529425</v>
       </c>
       <c r="E7" t="n">
-        <v>-272420.1567319651</v>
+        <v>-320411.3238152836</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-731322.8005311083</v>
+        <v>-799949.6058339581</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>463404.0525798476</v>
+        <v>484923.5093609843</v>
       </c>
       <c r="E8" t="n">
-        <v>-267918.7479512607</v>
+        <v>-315026.0964729739</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-684889.6068465934</v>
+        <v>-756709.08659969</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>422536.7343286488</v>
+        <v>448015.6653421312</v>
       </c>
       <c r="E9" t="n">
-        <v>-262352.8725179447</v>
+        <v>-308693.4212575588</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1093,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-638456.4131620786</v>
+        <v>-713468.5673654221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>382864.6278054646</v>
+        <v>412131.3404850141</v>
       </c>
       <c r="E10" t="n">
-        <v>-255591.785356614</v>
+        <v>-301337.2268804081</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-592023.2194775639</v>
+        <v>-670228.048131154</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>344511.5034011178</v>
+        <v>377340.0253760703</v>
       </c>
       <c r="E11" t="n">
-        <v>-247511.7160764461</v>
+        <v>-292888.0227550837</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1127,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-545590.025793049</v>
+        <v>-626987.5288968862</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>307590.7661045431</v>
+        <v>343703.5036730241</v>
       </c>
       <c r="E12" t="n">
-        <v>-237999.259688506</v>
+        <v>-283284.0252238621</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-499156.8321085342</v>
+        <v>-583747.009662618</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>272202.5501841822</v>
+        <v>311274.9870540468</v>
       </c>
       <c r="E13" t="n">
-        <v>-226954.281924352</v>
+        <v>-272472.0226085712</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1161,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-452723.6384240194</v>
+        <v>-540506.4904283501</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>238431.4120937518</v>
+        <v>280098.5163096249</v>
       </c>
       <c r="E14" t="n">
-        <v>-214292.2263302677</v>
+        <v>-260407.9741187252</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1178,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-406290.4447395046</v>
+        <v>-497265.9711940821</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>206344.6855223807</v>
+        <v>250208.6216408495</v>
       </c>
       <c r="E15" t="n">
-        <v>-199945.7592171239</v>
+        <v>-247057.3495532326</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1195,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-359857.2510549898</v>
+        <v>-454025.4519598141</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>175991.5160628107</v>
+        <v>221630.2256415203</v>
       </c>
       <c r="E16" t="n">
-        <v>-183865.7349921791</v>
+        <v>-232395.2263182938</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1212,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-313424.057370475</v>
+        <v>-410784.9327255461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>147402.5523823475</v>
+        <v>194378.765271237</v>
       </c>
       <c r="E17" t="n">
-        <v>-166021.5049881274</v>
+        <v>-216406.167454309</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1229,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-266990.8636859602</v>
+        <v>-367544.4134912781</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>120590.238184621</v>
+        <v>168460.5042897924</v>
       </c>
       <c r="E18" t="n">
-        <v>-146400.6255013392</v>
+        <v>-199083.9092014857</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1246,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-220557.6700014453</v>
+        <v>-324303.89425701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>95549.62560589796</v>
+        <v>143873.0049079696</v>
       </c>
       <c r="E19" t="n">
-        <v>-125008.0443955474</v>
+        <v>-180430.8893490405</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1263,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-174124.4763169306</v>
+        <v>-281063.375022742</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>72259.61597714351</v>
+        <v>120605.7265238966</v>
       </c>
       <c r="E20" t="n">
-        <v>-101864.860339787</v>
+        <v>-160457.6484988454</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-127691.2826324157</v>
+        <v>-237822.855788474</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>50684.52734849992</v>
+        <v>98640.72002508804</v>
       </c>
       <c r="E21" t="n">
-        <v>-77006.75528391582</v>
+        <v>-139182.135763386</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1297,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-81258.08894790092</v>
+        <v>-194582.336554206</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>30775.88858411825</v>
+        <v>77953.38790431853</v>
       </c>
       <c r="E22" t="n">
-        <v>-50482.20036378267</v>
+        <v>-116628.9486498875</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-34824.8952633861</v>
+        <v>-151341.817319938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>12474.36571303513</v>
+        <v>58513.28303847989</v>
       </c>
       <c r="E23" t="n">
-        <v>-22350.52955035097</v>
+        <v>-92828.53428145815</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>11608.2984211287</v>
+        <v>-108101.29808567</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-4288.263970269363</v>
+        <v>40284.92212143722</v>
       </c>
       <c r="E24" t="n">
-        <v>7320.034450859339</v>
+        <v>-67816.37596423278</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>58041.49210564351</v>
+        <v>-64860.77885140201</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-19587.16227553949</v>
+        <v>23228.59317327973</v>
       </c>
       <c r="E25" t="n">
-        <v>38454.32983010403</v>
+        <v>-41632.18567812229</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1365,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>104474.6857901583</v>
+        <v>-21620.259617134</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-33502.56368530931</v>
+        <v>7301.140062810603</v>
       </c>
       <c r="E26" t="n">
-        <v>70972.12210484903</v>
+        <v>-14319.1195543234</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>150907.8794746731</v>
+        <v>21620.259617134</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46118.03719968173</v>
+        <v>-7543.289584198202</v>
       </c>
       <c r="E27" t="n">
-        <v>104789.8422749914</v>
+        <v>14076.9700329358</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1399,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>197341.0731591879</v>
+        <v>64860.77885140201</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-57518.90852176647</v>
+        <v>-21352.54348143638</v>
       </c>
       <c r="E28" t="n">
-        <v>139822.1646374215</v>
+        <v>43508.23536996563</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>243774.2668437028</v>
+        <v>108101.29808567</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-67790.86283463912</v>
+        <v>-34175.81821785159</v>
       </c>
       <c r="E29" t="n">
-        <v>175983.4040090636</v>
+        <v>73925.47986781842</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1433,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>290207.4605282175</v>
+        <v>151341.817319938</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-77018.73815407204</v>
+        <v>-46063.07204367868</v>
       </c>
       <c r="E30" t="n">
-        <v>213188.7223741455</v>
+        <v>105278.7452762594</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>336640.6542127323</v>
+        <v>194582.336554206</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-85285.51069025278</v>
+        <v>-57064.49945021234</v>
       </c>
       <c r="E31" t="n">
-        <v>251355.1435224796</v>
+        <v>137517.8371039937</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1467,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>383073.8478972472</v>
+        <v>237822.855788474</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-92671.46684325479</v>
+        <v>-67230.06817987665</v>
       </c>
       <c r="E32" t="n">
-        <v>290402.3810539924</v>
+        <v>170592.7876085974</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1484,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>429507.041581762</v>
+        <v>281063.375022742</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-99253.55131354282</v>
+        <v>-76609.11774499591</v>
       </c>
       <c r="E33" t="n">
-        <v>330253.4902682191</v>
+        <v>204454.2572777461</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1501,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>475940.2352662768</v>
+        <v>324303.89425701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-105104.8771813992</v>
+        <v>-85250.0173017364</v>
       </c>
       <c r="E34" t="n">
-        <v>370835.3580848776</v>
+        <v>239053.8769552736</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1518,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>522373.4289507916</v>
+        <v>367544.4134912781</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-110294.3815064416</v>
+        <v>-93199.87979026615</v>
       </c>
       <c r="E35" t="n">
-        <v>412079.04744435</v>
+        <v>274344.5337010119</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>568806.6226353064</v>
+        <v>410784.9327255461</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-114886.6088093236</v>
+        <v>-100504.3285793901</v>
       </c>
       <c r="E36" t="n">
-        <v>453920.0138259829</v>
+        <v>310280.604146156</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1552,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>615239.8163198213</v>
+        <v>454025.4519598141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-118941.6045093248</v>
+        <v>-107207.3124083693</v>
       </c>
       <c r="E37" t="n">
-        <v>496298.2118104965</v>
+        <v>346818.1395514447</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1569,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>661673.010004336</v>
+        <v>497265.9711940821</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-122514.9008013615</v>
+        <v>-113350.9641651325</v>
       </c>
       <c r="E38" t="n">
-        <v>539158.1092029746</v>
+        <v>383915.0070289496</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>708106.2036888509</v>
+        <v>540506.4904283501</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-125657.5783802817</v>
+        <v>-118975.4989450164</v>
       </c>
       <c r="E39" t="n">
-        <v>582448.6253085692</v>
+        <v>421530.9914833337</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1603,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>754539.3973733657</v>
+        <v>583747.009662618</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-128416.3886987869</v>
+        <v>-124119.146866461</v>
       </c>
       <c r="E40" t="n">
-        <v>626123.0086745789</v>
+        <v>459627.8627961571</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1620,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>800972.5910578805</v>
+        <v>626987.5288968862</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-130833.9229429457</v>
+        <v>-128818.1162516552</v>
       </c>
       <c r="E41" t="n">
-        <v>670138.6681149348</v>
+        <v>498169.4126452309</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1637,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>847405.7847423953</v>
+        <v>670228.048131154</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-132948.8155160908</v>
+        <v>-133106.5829862349</v>
       </c>
       <c r="E42" t="n">
-        <v>714456.9692263044</v>
+        <v>537121.4651449192</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1654,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>893838.97842691</v>
+        <v>713468.5673654221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-134795.9714518181</v>
+        <v>-137016.7021314818</v>
       </c>
       <c r="E43" t="n">
-        <v>759043.0069750919</v>
+        <v>576451.8652339403</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>940272.172111425</v>
+        <v>756709.08659969</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-136406.8087649474</v>
+        <v>-140578.6381569373</v>
       </c>
       <c r="E44" t="n">
-        <v>803865.3633464775</v>
+        <v>616130.4484427527</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1688,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>986705.3657959397</v>
+        <v>799949.6058339581</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-137809.5082492852</v>
+        <v>-143820.6104760393</v>
       </c>
       <c r="E45" t="n">
-        <v>848895.8575466545</v>
+        <v>656128.9953579189</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1705,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>1033138.559480454</v>
+        <v>843190.1250682261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-139029.264612228</v>
+        <v>-146768.9512901845</v>
       </c>
       <c r="E46" t="n">
-        <v>894109.2948682264</v>
+        <v>696421.1737780416</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1722,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>1079571.753164969</v>
+        <v>886430.6443024941</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-140088.5340803614</v>
+        <v>-149448.1730679385</v>
       </c>
       <c r="E47" t="n">
-        <v>939483.2190846079</v>
+        <v>736982.4712345556</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1739,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>1126004.946849484</v>
+        <v>929671.1635367621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-141007.2747093141</v>
+        <v>-151881.0432986201</v>
       </c>
       <c r="E48" t="n">
-        <v>984997.6721401701</v>
+        <v>777790.1202381421</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1756,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>1172438.140533999</v>
+        <v>972911.6827710301</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-141803.1765845738</v>
+        <v>-154088.6644577534</v>
       </c>
       <c r="E49" t="n">
-        <v>1030634.963949425</v>
+        <v>818823.0183132767</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1773,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>1218871.334218514</v>
+        <v>1016152.202005298</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-142491.8799128089</v>
+        <v>-156090.5574020679</v>
       </c>
       <c r="E50" t="n">
-        <v>1076379.454305705</v>
+        <v>860061.6446032302</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1790,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>1265304.527903029</v>
+        <v>1059392.721239566</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-143087.1796842685</v>
+        <v>-157904.7466713752</v>
       </c>
       <c r="E51" t="n">
-        <v>1122217.34821876</v>
+        <v>901487.9745681909</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1807,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>1311737.721587543</v>
+        <v>1102633.240473834</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-143601.216147253</v>
+        <v>-159547.8464123471</v>
       </c>
       <c r="E52" t="n">
-        <v>1168136.50544029</v>
+        <v>943085.3940614869</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1824,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>1358170.915272058</v>
+        <v>1145873.759708102</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-144044.6507879836</v>
+        <v>-161035.145854439</v>
       </c>
       <c r="E53" t="n">
-        <v>1214126.264484075</v>
+        <v>984838.6138536633</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1841,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1404604.108956573</v>
+        <v>1189114.27894237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-144426.8278663855</v>
+        <v>-162380.6934610922</v>
       </c>
       <c r="E54" t="n">
-        <v>1260177.281090188</v>
+        <v>1026733.585481278</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1451037.302641088</v>
+        <v>1232354.798176638</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-144755.9218331859</v>
+        <v>-163597.3790505506</v>
       </c>
       <c r="E55" t="n">
-        <v>1306281.380807902</v>
+        <v>1068757.419126087</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1875,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>1497470.496325603</v>
+        <v>1275595.317410906</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-145039.0711584718</v>
+        <v>-164697.0133311664</v>
       </c>
       <c r="E56" t="n">
-        <v>1352431.425167131</v>
+        <v>1110898.30407974</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1892,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>1543903.690010117</v>
+        <v>1318835.836645174</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-145282.4992478113</v>
+        <v>-165690.4044272035</v>
       </c>
       <c r="E57" t="n">
-        <v>1398621.190762306</v>
+        <v>1153145.432217971</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1909,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>1590336.883694632</v>
+        <v>1362076.355879442</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-145491.6232194585</v>
+        <v>-166587.4310843453</v>
       </c>
       <c r="E58" t="n">
-        <v>1444845.260475174</v>
+        <v>1195488.924795097</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1926,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>1636770.077379147</v>
+        <v>1405316.87511371</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-145671.1513741832</v>
+        <v>-167397.1123408425</v>
       </c>
       <c r="E59" t="n">
-        <v>1491098.926004964</v>
+        <v>1237919.762772868</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1943,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>1683203.271063662</v>
+        <v>1448557.394347978</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-145825.1702158875</v>
+        <v>-168127.6735320765</v>
       </c>
       <c r="E60" t="n">
-        <v>1537378.100847774</v>
+        <v>1280429.720815902</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1960,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>1729636.464748177</v>
+        <v>1491797.913582246</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-145957.2218832803</v>
+        <v>-168786.6085648187</v>
       </c>
       <c r="E61" t="n">
-        <v>1583679.242864897</v>
+        <v>1323011.305017428</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1977,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>1776069.658432692</v>
+        <v>1535038.432816514</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-146070.3728363106</v>
+        <v>-169380.7384540103</v>
       </c>
       <c r="E62" t="n">
-        <v>1629999.285596381</v>
+        <v>1365657.694362504</v>
       </c>
     </row>
   </sheetData>
@@ -2040,16 +2040,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1306195.831971614</v>
+        <v>-1354932.909375169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1062861.979163306</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-243333.8528083086</v>
+        <v>-1354932.909375169</v>
       </c>
     </row>
     <row r="3">
@@ -2057,16 +2057,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-1269638.433931547</v>
+        <v>-1321543.729745422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1026621.428899175</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-243017.0050323717</v>
+        <v>-1321543.729745422</v>
       </c>
     </row>
     <row r="4">
@@ -2074,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-1233081.035891479</v>
+        <v>-1288154.550115674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>990382.8318820155</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-242698.2040094639</v>
+        <v>-1288154.550115674</v>
       </c>
     </row>
     <row r="5">
@@ -2091,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-1196523.637851412</v>
+        <v>-1254765.370485926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>954147.8555138041</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-242375.7823376076</v>
+        <v>-1254765.370485926</v>
       </c>
     </row>
     <row r="6">
@@ -2108,16 +2108,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-1159966.239811344</v>
+        <v>-1221376.190856178</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>917919.2760015584</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-242046.9638097857</v>
+        <v>-1221376.190856178</v>
       </c>
     </row>
     <row r="7">
@@ -2125,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-1123408.841771276</v>
+        <v>-1187987.01122643</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>881701.5080559767</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-241707.3337152997</v>
+        <v>-1187987.01122643</v>
       </c>
     </row>
     <row r="8">
@@ -2142,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-1086851.443731209</v>
+        <v>-1154597.831596682</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>845501.278433778</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-241350.1652974308</v>
+        <v>-1154597.831596682</v>
       </c>
     </row>
     <row r="9">
@@ -2159,16 +2159,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-1050294.045691141</v>
+        <v>-1121208.651966934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>809328.4370115399</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-240965.6086796012</v>
+        <v>-1121208.651966934</v>
       </c>
     </row>
     <row r="10">
@@ -2176,16 +2176,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-1013736.647651074</v>
+        <v>-1087819.472337186</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>773196.8806174805</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-240539.7670335934</v>
+        <v>-1087819.472337186</v>
       </c>
     </row>
     <row r="11">
@@ -2193,16 +2193,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-977179.2496110062</v>
+        <v>-1054430.292707438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>737125.5449491664</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-240053.7046618399</v>
+        <v>-1054430.292707438</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-940621.8515709386</v>
+        <v>-1021041.11307769</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>701139.4013523211</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-239482.4502186175</v>
+        <v>-1021041.11307769</v>
       </c>
     </row>
     <row r="13">
@@ -2227,16 +2227,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-904064.4535308711</v>
+        <v>-987651.9334479426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>665270.3809450797</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-238794.0725857913</v>
+        <v>-987651.9334479426</v>
       </c>
     </row>
     <row r="14">
@@ -2244,16 +2244,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-867507.0554908034</v>
+        <v>-954262.7538181947</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>629558.1410660357</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-237948.9144247677</v>
+        <v>-954262.7538181947</v>
       </c>
     </row>
     <row r="15">
@@ -2261,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-830949.6574507359</v>
+        <v>-920873.5741884467</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>594050.5899730463</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-236899.0674776896</v>
+        <v>-920873.5741884467</v>
       </c>
     </row>
     <row r="16">
@@ -2278,16 +2278,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-794392.2594106684</v>
+        <v>-887484.3945586988</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>558804.0956431241</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-235588.1637675443</v>
+        <v>-887484.3945586988</v>
       </c>
     </row>
     <row r="17">
@@ -2295,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-757834.8613706008</v>
+        <v>-854095.214928951</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>523883.3227089925</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-233951.5386616083</v>
+        <v>-854095.214928951</v>
       </c>
     </row>
     <row r="18">
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-721277.4633305332</v>
+        <v>-820706.0352992031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>489360.6662014191</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-231916.7971291142</v>
+        <v>-820706.0352992031</v>
       </c>
     </row>
     <row r="19">
@@ -2329,16 +2329,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-684720.0652904657</v>
+        <v>-787316.8556694551</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>455315.2792380652</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-229404.7860524005</v>
+        <v>-787316.8556694551</v>
       </c>
     </row>
     <row r="20">
@@ -2346,16 +2346,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-648162.6672503981</v>
+        <v>-753927.6760397073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>421831.7211084817</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-226330.9461419164</v>
+        <v>-753927.6760397073</v>
       </c>
     </row>
     <row r="21">
@@ -2363,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-611605.2692103304</v>
+        <v>-720538.4964099595</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>388998.2793866345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-222606.9898236959</v>
+        <v>-720538.4964099595</v>
       </c>
     </row>
     <row r="22">
@@ -2380,16 +2380,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-575047.871170263</v>
+        <v>-687149.3167802115</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>356905.0422059473</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-218142.8289643157</v>
+        <v>-687149.3167802115</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-538490.4731301954</v>
+        <v>-653760.1371504636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>325641.8127947067</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-212848.6603354887</v>
+        <v>-653760.1371504636</v>
       </c>
     </row>
     <row r="24">
@@ -2414,16 +2414,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-501933.0750901279</v>
+        <v>-620370.9575207158</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>295295.9667649821</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-206637.1083251458</v>
+        <v>-620370.9575207158</v>
       </c>
     </row>
     <row r="25">
@@ -2431,16 +2431,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>-465375.6770500603</v>
+        <v>-586981.7778909679</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>265950.3533042976</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-199425.3237457627</v>
+        <v>-586981.7778909679</v>
       </c>
     </row>
     <row r="26">
@@ -2448,16 +2448,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>-428818.2790099927</v>
+        <v>-553592.5982612199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>237681.33492948</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-191136.9440805127</v>
+        <v>-553592.5982612199</v>
       </c>
     </row>
     <row r="27">
@@ -2465,16 +2465,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>-392260.8809699251</v>
+        <v>-520203.4186314721</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>210557.048017287</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-181703.8329526382</v>
+        <v>-520203.4186314721</v>
       </c>
     </row>
     <row r="28">
@@ -2482,16 +2482,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>-355703.4829298576</v>
+        <v>-486814.2390017241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>184635.9495058654</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-171067.5334239922</v>
+        <v>-486814.2390017241</v>
       </c>
     </row>
     <row r="29">
@@ -2499,16 +2499,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>-319146.08488979</v>
+        <v>-453425.0593719763</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>159965.6957161832</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-159180.3891736068</v>
+        <v>-453425.0593719763</v>
       </c>
     </row>
     <row r="30">
@@ -2516,16 +2516,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>-282588.6868497225</v>
+        <v>-420035.8797422284</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>136582.3789006018</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-146006.3079491207</v>
+        <v>-420035.8797422284</v>
       </c>
     </row>
     <row r="31">
@@ -2533,16 +2533,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>-246031.2888096549</v>
+        <v>-386646.7001124805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>114510.127433151</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-131521.1613765038</v>
+        <v>-386646.7001124805</v>
       </c>
     </row>
     <row r="32">
@@ -2550,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>-209473.8907695873</v>
+        <v>-353257.5204827326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>93761.05776998577</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-115712.8329996015</v>
+        <v>-353257.5204827326</v>
       </c>
     </row>
     <row r="33">
@@ -2567,16 +2567,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>-172916.4927295198</v>
+        <v>-319868.3408529848</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>74335.55133866331</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-98580.94139085645</v>
+        <v>-319868.3408529848</v>
       </c>
     </row>
     <row r="34">
@@ -2584,16 +2584,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>-136359.0946894522</v>
+        <v>-286479.1612232369</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>56222.81791029825</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-80136.27677915394</v>
+        <v>-286479.1612232369</v>
       </c>
     </row>
     <row r="35">
@@ -2601,16 +2601,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>-99801.6966493846</v>
+        <v>-253089.9815934889</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>39401.69898101699</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-60399.99766836761</v>
+        <v>-253089.9815934889</v>
       </c>
     </row>
     <row r="36">
@@ -2618,16 +2618,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>-63244.29860931703</v>
+        <v>-219700.8019637411</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>23841.6601611239</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-39402.63844819313</v>
+        <v>-219700.8019637411</v>
       </c>
     </row>
     <row r="37">
@@ -2635,16 +2635,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>-26686.90056924947</v>
+        <v>-186311.6223339932</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>9503.92023967911</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-17182.98032957036</v>
+        <v>-186311.6223339932</v>
       </c>
     </row>
     <row r="38">
@@ -2652,16 +2652,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>9870.497470818098</v>
+        <v>-152922.4427042453</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-3657.334000338116</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6213.163470479982</v>
+        <v>-152922.4427042453</v>
       </c>
     </row>
     <row r="39">
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>46427.89551088566</v>
+        <v>-119533.2630744974</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-15693.69454464017</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>30734.20096624549</v>
+        <v>-119533.2630744974</v>
       </c>
     </row>
     <row r="40">
@@ -2686,16 +2686,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>82985.29355095324</v>
+        <v>-86144.0834447495</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-26661.2826119382</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>56324.01093901503</v>
+        <v>-86144.0834447495</v>
       </c>
     </row>
     <row r="41">
@@ -2703,16 +2703,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>119542.6915910208</v>
+        <v>-52754.90381500161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-36619.53869666294</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>82923.15289435786</v>
+        <v>-52754.90381500161</v>
       </c>
     </row>
     <row r="42">
@@ -2720,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>156100.0896310884</v>
+        <v>-19365.72418525372</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-45630.08129121696</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>110470.0083398714</v>
+        <v>-19365.72418525372</v>
       </c>
     </row>
     <row r="43">
@@ -2737,16 +2737,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>192657.4876711559</v>
+        <v>14023.45544449417</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-53755.65652521075</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>138901.8311459452</v>
+        <v>14023.45544449417</v>
       </c>
     </row>
     <row r="44">
@@ -2754,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>229214.8857112235</v>
+        <v>47412.63507424206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-61059.19436182737</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>168155.6913493961</v>
+        <v>47412.63507424206</v>
       </c>
     </row>
     <row r="45">
@@ -2771,16 +2771,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>265772.283751291</v>
+        <v>80801.81470398995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-67602.98092572633</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>198169.3028255647</v>
+        <v>80801.81470398995</v>
       </c>
     </row>
     <row r="46">
@@ -2788,16 +2788,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>302329.6817913586</v>
+        <v>114190.9943337378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-73447.9511829273</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>228881.7306084313</v>
+        <v>114190.9943337378</v>
       </c>
     </row>
     <row r="47">
@@ -2805,16 +2805,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>338887.0798314262</v>
+        <v>147580.1739634857</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-78653.10165451585</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>260233.9781769104</v>
+        <v>147580.1739634857</v>
       </c>
     </row>
     <row r="48">
@@ -2822,16 +2822,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>375444.4778714938</v>
+        <v>180969.3535932336</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-83275.01916181573</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>292169.458709678</v>
+        <v>180969.3535932336</v>
       </c>
     </row>
     <row r="49">
@@ -2839,16 +2839,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>412001.8759115613</v>
+        <v>214358.5332229815</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-87367.51875786993</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>324634.3571536914</v>
+        <v>214358.5332229815</v>
       </c>
     </row>
     <row r="50">
@@ -2856,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>448559.2739516289</v>
+        <v>247747.7128527294</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-90981.38194706777</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>357577.8920045611</v>
+        <v>247747.7128527294</v>
       </c>
     </row>
     <row r="51">
@@ -2873,16 +2873,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>485116.6719916964</v>
+        <v>281136.8924824773</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-94164.18495297032</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>390952.4870387261</v>
+        <v>281136.8924824773</v>
       </c>
     </row>
     <row r="52">
@@ -2890,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>521674.070031764</v>
+        <v>314526.0721122252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-96960.20606940474</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>424713.8639623593</v>
+        <v>314526.0721122252</v>
       </c>
     </row>
     <row r="53">
@@ -2907,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>558231.4680718316</v>
+        <v>347915.2517419731</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-99410.40091996093</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>458821.0671518707</v>
+        <v>347915.2517419731</v>
       </c>
     </row>
     <row r="54">
@@ -2924,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>594788.8661118991</v>
+        <v>381304.431371721</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-101552.434654234</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>493236.4314576651</v>
+        <v>381304.431371721</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>631346.2641519668</v>
+        <v>414693.6110014688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-103420.7606287008</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>527925.5035232659</v>
+        <v>414693.6110014688</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2958,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>667903.6621920343</v>
+        <v>448082.7906312168</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-105046.7358677053</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>562856.926324329</v>
+        <v>448082.7906312168</v>
       </c>
     </row>
     <row r="57">
@@ -2975,16 +2975,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>704461.0602321018</v>
+        <v>481471.9702609646</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-106458.7644982414</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>598002.2957338605</v>
+        <v>481471.9702609646</v>
       </c>
     </row>
     <row r="58">
@@ -2992,16 +2992,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>741018.4582721695</v>
+        <v>514861.1498907126</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-107682.4613353794</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>633335.9969367901</v>
+        <v>514861.1498907126</v>
       </c>
     </row>
     <row r="59">
@@ -3009,16 +3009,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>777575.856312237</v>
+        <v>548250.3295204605</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-108740.8288095894</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>668835.0275026476</v>
+        <v>548250.3295204605</v>
       </c>
     </row>
     <row r="60">
@@ -3026,16 +3026,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>814133.2543523046</v>
+        <v>581639.5091502083</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-109654.4414305967</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>704478.8129217079</v>
+        <v>581639.5091502083</v>
       </c>
     </row>
     <row r="61">
@@ -3043,16 +3043,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>850690.6523923721</v>
+        <v>615028.6887799562</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-110441.6329429279</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>740249.0194494443</v>
+        <v>615028.6887799562</v>
       </c>
     </row>
     <row r="62">
@@ -3060,16 +3060,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>887248.0504324398</v>
+        <v>648417.8684097041</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-111118.6822234076</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>776129.3682090321</v>
+        <v>648417.8684097041</v>
       </c>
     </row>
     <row r="63">
@@ -3077,16 +3077,16 @@
         <v>91</v>
       </c>
       <c r="B63" t="n">
-        <v>923805.4484725072</v>
+        <v>681807.0480394519</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-111699.9947858576</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>812105.4536866496</v>
+        <v>681807.0480394519</v>
       </c>
     </row>
     <row r="64">
@@ -3094,16 +3094,16 @@
         <v>92</v>
       </c>
       <c r="B64" t="n">
-        <v>960362.8465125748</v>
+        <v>715196.2276691998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-112198.2774849528</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>848164.569027622</v>
+        <v>715196.2276691998</v>
       </c>
     </row>
     <row r="65">
@@ -3111,16 +3111,16 @@
         <v>93</v>
       </c>
       <c r="B65" t="n">
-        <v>996920.2445526423</v>
+        <v>748585.4072989478</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-112624.7046466512</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>884295.5399059912</v>
+        <v>748585.4072989478</v>
       </c>
     </row>
     <row r="66">
@@ -3128,16 +3128,16 @@
         <v>94</v>
       </c>
       <c r="B66" t="n">
-        <v>1033477.64259271</v>
+        <v>781974.5869286957</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-112989.0743978747</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>920488.5681948353</v>
+        <v>781974.5869286957</v>
       </c>
     </row>
     <row r="67">
@@ -3145,16 +3145,16 @@
         <v>95</v>
       </c>
       <c r="B67" t="n">
-        <v>1070035.040632778</v>
+        <v>815363.7665584435</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-113299.9544271637</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>956735.0862056139</v>
+        <v>815363.7665584435</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3162,16 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>1106592.438672845</v>
+        <v>848752.9461881914</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-113564.8167868751</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>993027.6218859699</v>
+        <v>848752.9461881914</v>
       </c>
     </row>
     <row r="69">
@@ -3179,16 +3179,16 @@
         <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>1143149.836712913</v>
+        <v>882142.1258179394</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-113790.1616534511</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1029359.675059462</v>
+        <v>882142.1258179394</v>
       </c>
     </row>
     <row r="70">
@@ -3196,16 +3196,16 @@
         <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>1179707.23475298</v>
+        <v>915531.3054476872</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-113981.63020331</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1065725.60454967</v>
+        <v>915531.3054476872</v>
       </c>
     </row>
     <row r="71">
@@ -3213,16 +3213,16 @@
         <v>99</v>
       </c>
       <c r="B71" t="n">
-        <v>1216264.632793048</v>
+        <v>948920.485077435</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-114144.1069461929</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1102120.525846855</v>
+        <v>948920.485077435</v>
       </c>
     </row>
     <row r="72">
@@ -3230,16 +3230,16 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>1252822.030833115</v>
+        <v>982309.664707183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-114281.8119933325</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1138540.218839783</v>
+        <v>982309.664707183</v>
       </c>
     </row>
   </sheetData>
@@ -3293,16 +3293,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-914858.7112627907</v>
+        <v>-838957.4106661081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>606929.5883882416</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-307929.1228745491</v>
+        <v>-838957.4106661081</v>
       </c>
     </row>
     <row r="3">
@@ -3310,16 +3310,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-855336.3487863566</v>
+        <v>-778251.3751620481</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>552527.1436374868</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-302809.2051488698</v>
+        <v>-778251.3751620481</v>
       </c>
     </row>
     <row r="4">
@@ -3327,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-795813.9863099226</v>
+        <v>-717545.3396579883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>499530.8768294122</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-296283.1094805105</v>
+        <v>-717545.3396579883</v>
       </c>
     </row>
     <row r="5">
@@ -3344,16 +3344,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-736291.6238334887</v>
+        <v>-656839.3041539284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>448161.9520321999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-288129.6718012887</v>
+        <v>-656839.3041539284</v>
       </c>
     </row>
     <row r="6">
@@ -3361,16 +3361,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-676769.2613570547</v>
+        <v>-596133.2686498684</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>398629.767484446</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-278139.4938726087</v>
+        <v>-596133.2686498684</v>
       </c>
     </row>
     <row r="7">
@@ -3378,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-617246.8988806206</v>
+        <v>-535427.2331458085</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>351124.3207579388</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-266122.5781226818</v>
+        <v>-535427.2331458085</v>
       </c>
     </row>
     <row r="8">
@@ -3395,16 +3395,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-557724.5364041866</v>
+        <v>-474721.1976417486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>305809.9323540371</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-251914.6040501495</v>
+        <v>-474721.1976417486</v>
       </c>
     </row>
     <row r="9">
@@ -3412,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-498202.1739277526</v>
+        <v>-414015.1621376887</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>262820.6109556405</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-235381.5629721121</v>
+        <v>-414015.1621376887</v>
       </c>
     </row>
     <row r="10">
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-438679.8114513186</v>
+        <v>-353309.1266336287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>222257.1665681313</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-216422.6448831873</v>
+        <v>-353309.1266336287</v>
       </c>
     </row>
     <row r="11">
@@ -3446,16 +3446,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-379157.4489748845</v>
+        <v>-292603.0911295689</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>184186.0257085129</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-194971.4232663716</v>
+        <v>-292603.0911295689</v>
       </c>
     </row>
     <row r="12">
@@ -3463,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-319635.0864984505</v>
+        <v>-231897.0556255089</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>148639.5861579154</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-170995.5003405351</v>
+        <v>-231897.0556255089</v>
       </c>
     </row>
     <row r="13">
@@ -3480,16 +3480,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-260112.7240220165</v>
+        <v>-171191.020121449</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>115617.87087081</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-144494.8531512065</v>
+        <v>-171191.020121449</v>
       </c>
     </row>
     <row r="14">
@@ -3497,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-200590.3615455825</v>
+        <v>-110484.9846173891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>85091.19933874228</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-115499.1622068402</v>
+        <v>-110484.9846173891</v>
       </c>
     </row>
     <row r="15">
@@ -3514,16 +3514,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-141067.9990691485</v>
+        <v>-49778.94911332915</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>57003.58453033744</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-84064.41453881102</v>
+        <v>-49778.94911332915</v>
       </c>
     </row>
     <row r="16">
@@ -3531,16 +3531,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-81545.63659271445</v>
+        <v>10927.08639073077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>31276.57731117819</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-50269.05928153626</v>
+        <v>10927.08639073077</v>
       </c>
     </row>
     <row r="17">
@@ -3548,16 +3548,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-22023.27411628044</v>
+        <v>71633.12189479069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7813.310528809709</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-14209.96358747073</v>
+        <v>71633.12189479069</v>
       </c>
     </row>
     <row r="18">
@@ -3565,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>37499.08836015358</v>
+        <v>132339.1573988506</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-13497.46510679694</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>24001.62325335664</v>
+        <v>132339.1573988506</v>
       </c>
     </row>
     <row r="19">
@@ -3582,16 +3582,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>97021.4508365876</v>
+        <v>193045.1929029105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-32777.5173033182</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>64243.9335332694</v>
+        <v>193045.1929029105</v>
       </c>
     </row>
     <row r="20">
@@ -3599,16 +3599,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>156543.8133130216</v>
+        <v>253751.2284069704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-50155.56104829747</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>106388.2522647241</v>
+        <v>253751.2284069704</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>216066.1757894557</v>
+        <v>314457.2639110303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-65764.06033756878</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>150302.1154518869</v>
+        <v>314457.2639110303</v>
       </c>
     </row>
     <row r="22">
@@ -3633,16 +3633,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>275588.5382658896</v>
+        <v>375163.2994150903</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-79736.44815232292</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>195852.0901135667</v>
+        <v>375163.2994150903</v>
       </c>
     </row>
     <row r="23">
@@ -3650,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>335110.9007423237</v>
+        <v>435869.3349191502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-92204.78128150624</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>242906.1194608174</v>
+        <v>435869.3349191502</v>
       </c>
     </row>
     <row r="24">
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>394633.2632187577</v>
+        <v>496575.3704232101</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-103297.8240738822</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>291335.4391448755</v>
+        <v>496575.3704232101</v>
       </c>
     </row>
     <row r="25">
@@ -3684,16 +3684,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>454155.6256951917</v>
+        <v>557281.4059272701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-113139.5386223111</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>341016.0870728806</v>
+        <v>557281.4059272701</v>
       </c>
     </row>
     <row r="26">
@@ -3701,16 +3701,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>513677.9881716256</v>
+        <v>617987.4414313299</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-121847.9475791498</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>391830.0405924759</v>
+        <v>617987.4414313299</v>
       </c>
     </row>
     <row r="27">
@@ -3718,16 +3718,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>573200.3506480597</v>
+        <v>678693.4769353899</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-129534.3289649536</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>443666.0216831061</v>
+        <v>678693.4769353899</v>
       </c>
     </row>
     <row r="28">
@@ -3735,16 +3735,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>632722.7131244937</v>
+        <v>739399.5124394498</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-136302.6991055379</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>496420.0140189558</v>
+        <v>739399.5124394498</v>
       </c>
     </row>
     <row r="29">
@@ -3752,16 +3752,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>692245.0756009278</v>
+        <v>800105.5479435096</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-142249.5393883333</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>549995.5362125945</v>
+        <v>800105.5479435096</v>
       </c>
     </row>
     <row r="30">
@@ -3769,16 +3769,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>751767.4380773618</v>
+        <v>860811.5834475696</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-147463.7241200697</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>604303.713957292</v>
+        <v>860811.5834475696</v>
       </c>
     </row>
     <row r="31">
@@ -3786,16 +3786,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>811289.8005537959</v>
+        <v>921517.6189516296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-152026.6097506375</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>659263.1908031584</v>
+        <v>921517.6189516296</v>
       </c>
     </row>
     <row r="32">
@@ -3803,16 +3803,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>870812.1630302299</v>
+        <v>982223.6544556894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-156012.2495719668</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>714799.913458263</v>
+        <v>982223.6544556894</v>
       </c>
     </row>
     <row r="33">
@@ -3820,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>930334.5255066638</v>
+        <v>1042929.689959749</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-159487.7022862039</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>770846.82322046</v>
+        <v>1042929.689959749</v>
       </c>
     </row>
     <row r="34">
@@ -3837,16 +3837,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>989856.8879830979</v>
+        <v>1103635.725463809</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-162513.4072458296</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>827343.4807372683</v>
+        <v>1103635.725463809</v>
       </c>
     </row>
     <row r="35">
@@ -3854,16 +3854,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1049379.250459532</v>
+        <v>1164341.760967869</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-165143.6034694449</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>884235.6469900871</v>
+        <v>1164341.760967869</v>
       </c>
     </row>
     <row r="36">
@@ -3871,16 +3871,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1108901.612935966</v>
+        <v>1225047.796471929</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-167426.7735741534</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>941474.8393618125</v>
+        <v>1225047.796471929</v>
       </c>
     </row>
     <row r="37">
@@ -3888,16 +3888,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168423.9754124</v>
+        <v>1285753.831975989</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-169406.0974414867</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>999017.8779709132</v>
+        <v>1285753.831975989</v>
       </c>
     </row>
     <row r="38">
@@ -3905,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1227946.337888834</v>
+        <v>1346459.867480049</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-171119.9036973153</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1056826.434191518</v>
+        <v>1346459.867480049</v>
       </c>
     </row>
     <row r="39">
@@ -3922,16 +3922,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1287468.700365268</v>
+        <v>1407165.902984109</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-172602.1099201123</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1114866.590445156</v>
+        <v>1407165.902984109</v>
       </c>
     </row>
     <row r="40">
@@ -3939,16 +3939,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1346991.062841702</v>
+        <v>1467871.938488169</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-173882.6449037489</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1173108.417937953</v>
+        <v>1467871.938488169</v>
       </c>
     </row>
     <row r="41">
@@ -3956,16 +3956,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1406513.425318136</v>
+        <v>1528577.973992229</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-174987.8483145748</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1231525.577003561</v>
+        <v>1528577.973992229</v>
       </c>
     </row>
     <row r="42">
@@ -3973,16 +3973,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1466035.78779457</v>
+        <v>1589284.009496289</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-175940.8447319948</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1290094.943062575</v>
+        <v>1589284.009496289</v>
       </c>
     </row>
     <row r="43">
@@ -3990,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1525558.150271004</v>
+        <v>1649990.045000348</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-176761.890386559</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1348796.259884445</v>
+        <v>1649990.045000348</v>
       </c>
     </row>
     <row r="44">
@@ -4007,16 +4007,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1585080.512747438</v>
+        <v>1710696.080504408</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-177468.6919510872</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1407611.820796351</v>
+        <v>1710696.080504408</v>
       </c>
     </row>
     <row r="45">
@@ -4024,16 +4024,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1644602.875223872</v>
+        <v>1771402.116008468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-178076.6975393272</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1466526.177684545</v>
+        <v>1771402.116008468</v>
       </c>
     </row>
     <row r="46">
@@ -4041,16 +4041,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1704125.237700306</v>
+        <v>1832108.151512528</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-178599.3606615819</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1525525.877038724</v>
+        <v>1832108.151512528</v>
       </c>
     </row>
     <row r="47">
@@ -4058,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1763647.60017674</v>
+        <v>1892814.187016588</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-179048.3783129183</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1584599.221863822</v>
+        <v>1892814.187016588</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-671196.6210704048</v>
+        <v>-637370.3534764132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>485225.4484484431</v>
+        <v>396691.2835190407</v>
       </c>
       <c r="E2" t="n">
-        <v>-185971.1726219616</v>
+        <v>-240679.0699573724</v>
       </c>
     </row>
     <row r="3">
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-602143.4707545195</v>
+        <v>-569129.4162733712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>421053.6251390923</v>
+        <v>341985.6361235808</v>
       </c>
       <c r="E3" t="n">
-        <v>-181089.8456154271</v>
+        <v>-227143.7801497904</v>
       </c>
     </row>
     <row r="4">
@@ -4155,16 +4155,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-533090.3204386343</v>
+        <v>-500888.4790703291</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>358955.3179156266</v>
+        <v>289941.3548586919</v>
       </c>
       <c r="E4" t="n">
-        <v>-174135.0025230076</v>
+        <v>-210947.1242116372</v>
       </c>
     </row>
     <row r="5">
@@ -4172,16 +4172,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-464037.1701227489</v>
+        <v>-432647.541867287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>299481.1130025372</v>
+        <v>240743.2059455751</v>
       </c>
       <c r="E5" t="n">
-        <v>-164556.0571202117</v>
+        <v>-191904.3359217119</v>
       </c>
     </row>
     <row r="6">
@@ -4189,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-394984.0198068637</v>
+        <v>-364406.6046642449</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>243170.0433425776</v>
+        <v>194527.3944289027</v>
       </c>
       <c r="E6" t="n">
-        <v>-151813.976464286</v>
+        <v>-169879.2102353422</v>
       </c>
     </row>
     <row r="7">
@@ -4206,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-325930.8694909784</v>
+        <v>-296165.6674612028</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>190507.9601905994</v>
+        <v>151379.8588105977</v>
       </c>
       <c r="E7" t="n">
-        <v>-135422.909300379</v>
+        <v>-144785.8086506051</v>
       </c>
     </row>
     <row r="8">
@@ -4223,16 +4223,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-256877.7191750931</v>
+        <v>-227924.7302581607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>141891.2209364446</v>
+        <v>111337.210945824</v>
       </c>
       <c r="E8" t="n">
-        <v>-114986.4982386485</v>
+        <v>-116587.5193123367</v>
       </c>
     </row>
     <row r="9">
@@ -4240,16 +4240,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-187824.5688592079</v>
+        <v>-159683.7930551187</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>97600.32030721518</v>
+        <v>74389.82829020286</v>
       </c>
       <c r="E9" t="n">
-        <v>-90224.24855199267</v>
+        <v>-85293.96476491584</v>
       </c>
     </row>
     <row r="10">
@@ -4257,16 +4257,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-118771.4185433226</v>
+        <v>-91442.85585207661</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>57785.9381566255</v>
+        <v>40486.54261927077</v>
       </c>
       <c r="E10" t="n">
-        <v>-60985.48038669708</v>
+        <v>-50956.31323280584</v>
       </c>
     </row>
     <row r="11">
@@ -4274,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-49718.26822743731</v>
+        <v>-23201.91864903453</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>22467.63412636233</v>
+        <v>9540.372552231547</v>
       </c>
       <c r="E11" t="n">
-        <v>-27250.63410107498</v>
+        <v>-13661.54609680299</v>
       </c>
     </row>
     <row r="12">
@@ -4291,16 +4291,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>19334.88208844795</v>
+        <v>45039.01855400753</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-8456.42816604634</v>
+        <v>-18565.20292967807</v>
       </c>
       <c r="E12" t="n">
-        <v>10878.45392240161</v>
+        <v>26473.81562432946</v>
       </c>
     </row>
     <row r="13">
@@ -4308,16 +4308,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>88388.03240433322</v>
+        <v>113279.9557570496</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-35191.53080270942</v>
+        <v>-43969.8548360049</v>
       </c>
       <c r="E13" t="n">
-        <v>53196.5016016238</v>
+        <v>69310.10092104471</v>
       </c>
     </row>
     <row r="14">
@@ -4325,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>157441.1827202185</v>
+        <v>181520.8929600917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-58023.50350018104</v>
+        <v>-66830.23280259508</v>
       </c>
       <c r="E14" t="n">
-        <v>99417.67922003745</v>
+        <v>114690.6601574966</v>
       </c>
     </row>
     <row r="15">
@@ -4342,16 +4342,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>226494.3330361038</v>
+        <v>249761.8301631338</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-77294.02988819018</v>
+        <v>-87314.25522773905</v>
       </c>
       <c r="E15" t="n">
-        <v>149200.3031479136</v>
+        <v>162447.5749353947</v>
       </c>
     </row>
     <row r="16">
@@ -4359,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>295547.483351989</v>
+        <v>318002.7673661758</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-93376.77457266886</v>
+        <v>-105596.0201642413</v>
       </c>
       <c r="E16" t="n">
-        <v>202170.7087793201</v>
+        <v>212406.7472019345</v>
       </c>
     </row>
     <row r="17">
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>364600.6336678743</v>
+        <v>386243.7045692179</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-106656.20830714</v>
+        <v>-121851.4241428508</v>
       </c>
       <c r="E17" t="n">
-        <v>257944.4253607343</v>
+        <v>264392.2804263671</v>
       </c>
     </row>
     <row r="18">
@@ -4393,16 +4393,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>433653.7839837595</v>
+        <v>454484.64177226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-117510.2397394404</v>
+        <v>-136254.5179360841</v>
       </c>
       <c r="E18" t="n">
-        <v>316143.5442443191</v>
+        <v>318230.1238361759</v>
       </c>
     </row>
     <row r="19">
@@ -4410,16 +4410,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>502706.9342996448</v>
+        <v>522725.578975302</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-126297.0836338334</v>
+        <v>-148974.5841600997</v>
       </c>
       <c r="E19" t="n">
-        <v>376409.8506658114</v>
+        <v>373750.9948152023</v>
       </c>
     </row>
     <row r="20">
@@ -4427,16 +4427,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>571760.0846155301</v>
+        <v>590966.516178344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-133346.2713531143</v>
+        <v>-160173.8904692056</v>
       </c>
       <c r="E20" t="n">
-        <v>438413.8132624158</v>
+        <v>430792.6257091385</v>
       </c>
     </row>
     <row r="21">
@@ -4444,16 +4444,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>640813.2349314153</v>
+        <v>659207.4533813862</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-138953.3576830706</v>
+        <v>-170006.0521466541</v>
       </c>
       <c r="E21" t="n">
-        <v>501859.8772483447</v>
+        <v>489201.4012347321</v>
       </c>
     </row>
     <row r="22">
@@ -4461,16 +4461,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>709866.3852473006</v>
+        <v>727448.3905844283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-143377.6850662934</v>
+        <v>-178614.9270753331</v>
       </c>
       <c r="E22" t="n">
-        <v>566488.7001810073</v>
+        <v>548833.4635090951</v>
       </c>
     </row>
     <row r="23">
@@ -4478,16 +4478,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>778919.5355631858</v>
+        <v>795689.3277874703</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-146842.5009446118</v>
+        <v>-186133.9623152656</v>
       </c>
       <c r="E23" t="n">
-        <v>632077.0346185741</v>
+        <v>609555.3654722048</v>
       </c>
     </row>
     <row r="24">
@@ -4495,16 +4495,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>847972.685879071</v>
+        <v>863930.2649905123</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-149536.7493487875</v>
+        <v>-192685.912922098</v>
       </c>
       <c r="E24" t="n">
-        <v>698435.9365302834</v>
+        <v>671244.3520684142</v>
       </c>
     </row>
     <row r="25">
@@ -4512,16 +4512,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>917025.8361949564</v>
+        <v>932171.2021935545</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-151617.9392178392</v>
+        <v>-198382.8585738833</v>
       </c>
       <c r="E25" t="n">
-        <v>765407.8969771173</v>
+        <v>733788.3436196712</v>
       </c>
     </row>
     <row r="26">
@@ -4529,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>986078.9865108416</v>
+        <v>1000412.139396597</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-153215.6004278596</v>
+        <v>-203326.4506911783</v>
       </c>
       <c r="E26" t="n">
-        <v>832863.3860829819</v>
+        <v>797085.6887054183</v>
       </c>
     </row>
     <row r="27">
@@ -4546,16 +4546,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1055132.136826727</v>
+        <v>1068653.076599639</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-154434.9530633443</v>
+        <v>-207608.3309900553</v>
       </c>
       <c r="E27" t="n">
-        <v>900697.1837633825</v>
+        <v>861044.7456095834</v>
       </c>
     </row>
     <row r="28">
@@ -4563,16 +4563,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1124185.287142612</v>
+        <v>1136894.013802681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-155360.5223527698</v>
+        <v>-211310.6710189177</v>
       </c>
       <c r="E28" t="n">
-        <v>968824.7647898425</v>
+        <v>925583.342783763</v>
       </c>
     </row>
     <row r="29">
@@ -4580,16 +4580,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1193238.437458497</v>
+        <v>1205134.951005723</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-156059.5233490479</v>
+        <v>-214506.7906474302</v>
       </c>
       <c r="E29" t="n">
-        <v>1037178.91410945</v>
+        <v>990628.1603582924</v>
       </c>
     </row>
     <row r="30">
@@ -4597,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1262291.587774383</v>
+        <v>1273375.888208765</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-156584.9128907519</v>
+        <v>-217261.8213368676</v>
       </c>
       <c r="E30" t="n">
-        <v>1105706.674883631</v>
+        <v>1056114.066871897</v>
       </c>
     </row>
     <row r="31">
@@ -4614,16 +4614,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1331344.738090268</v>
+        <v>1341616.825411807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-156978.0617324021</v>
+        <v>-219633.3871105725</v>
       </c>
       <c r="E31" t="n">
-        <v>1174366.676357866</v>
+        <v>1121983.438301234</v>
       </c>
     </row>
     <row r="32">
@@ -4631,16 +4631,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1400397.888406153</v>
+        <v>1409857.762614849</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-157271.038885893</v>
+        <v>-221672.2823567723</v>
       </c>
       <c r="E32" t="n">
-        <v>1243126.84952026</v>
+        <v>1188185.480258077</v>
       </c>
     </row>
     <row r="33">
@@ -4648,16 +4648,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1469451.038722039</v>
+        <v>1478098.699817891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-157488.5259231281</v>
+        <v>-223423.1309092178</v>
       </c>
       <c r="E33" t="n">
-        <v>1311962.51279891</v>
+        <v>1254675.568908673</v>
       </c>
     </row>
     <row r="34">
@@ -4665,16 +4665,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>1538504.189037924</v>
+        <v>1546339.637020933</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-157649.3942038515</v>
+        <v>-224925.0152938618</v>
       </c>
       <c r="E34" t="n">
-        <v>1380854.794834072</v>
+        <v>1321414.621727071</v>
       </c>
     </row>
     <row r="35">
@@ -4682,16 +4682,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1607557.339353809</v>
+        <v>1614580.574223975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-157767.9854690566</v>
+        <v>-226212.068666324</v>
       </c>
       <c r="E35" t="n">
-        <v>1449789.353884752</v>
+        <v>1388368.505557651</v>
       </c>
     </row>
     <row r="36">
@@ -4699,16 +4699,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1676610.489669694</v>
+        <v>1682821.511427017</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-157855.1383384222</v>
+        <v>-227314.0248787467</v>
       </c>
       <c r="E36" t="n">
-        <v>1518755.351331272</v>
+        <v>1455507.486548271</v>
       </c>
     </row>
   </sheetData>
